--- a/data/01-31-densitycutter.xlsx
+++ b/data/01-31-densitycutter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jille\Documents\Uni\Master-Mechatronik\Masterarbeit\Messung1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3C7D18-510C-45B9-B1FB-D474D7C26358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD349A19-14F9-4926-A7E2-D17B5C1466C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{61D6FC73-02F6-43A9-80E2-DF36798766F6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{61D6FC73-02F6-43A9-80E2-DF36798766F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Schneehöhe</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Dichtewert2</t>
   </si>
@@ -50,13 +47,19 @@
     <t>Abweichung</t>
   </si>
   <si>
-    <t>Mittelwert</t>
-  </si>
-  <si>
     <t>Abweichung 2</t>
   </si>
   <si>
     <t>Dichtewert1 in kg/m^3</t>
+  </si>
+  <si>
+    <t>snowdepth</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>snowheighth</t>
   </si>
 </sst>
 </file>
@@ -428,230 +431,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8E1CA8-A778-4AE0-A87F-1DE4A1FF0877}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>118</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>117</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>113</v>
       </c>
-      <c r="E2">
-        <f>ABS(C2 - B2) / B2 * 100</f>
+      <c r="F2">
+        <f>ABS(D2 - C2) / C2 * 100</f>
         <v>3.4188034188034191</v>
       </c>
-      <c r="G2">
-        <f>AVERAGE(B2:D2)</f>
+      <c r="H2">
+        <f>AVERAGE(C2:E2)</f>
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3">
         <v>101</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>117</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>113</v>
       </c>
-      <c r="E3">
-        <f>ABS(C3 - B3) / B3 * 100</f>
+      <c r="F3">
+        <f>ABS(D3 - C3) / C3 * 100</f>
         <v>3.4188034188034191</v>
       </c>
-      <c r="G3">
-        <f>AVERAGE(B3:D3)</f>
+      <c r="H3">
+        <f>AVERAGE(C3:E3)</f>
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
         <v>86</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>144</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>146</v>
       </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E11" si="0">ABS(C4 - B4) / B4 * 100</f>
+      <c r="F4">
+        <f t="shared" ref="F4:F11" si="0">ABS(D4 - C4) / C4 * 100</f>
         <v>1.3888888888888888</v>
       </c>
-      <c r="G4">
-        <f>AVERAGE(B4:D4)</f>
+      <c r="H4">
+        <f>AVERAGE(C4:E4)</f>
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>45</v>
+      </c>
+      <c r="B5">
         <v>73</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>178</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>180</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>1.1235955056179776</v>
       </c>
-      <c r="G5">
-        <f>AVERAGE(B5:D5)</f>
+      <c r="H5">
+        <f>AVERAGE(C5:E5)</f>
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>48</v>
+      </c>
+      <c r="B6">
         <v>70</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>288</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>279</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>280</v>
       </c>
-      <c r="E6">
-        <f>ABS(C6 - B6) / B6 * 100</f>
+      <c r="F6">
+        <f>ABS(D6 - C6) / C6 * 100</f>
         <v>3.125</v>
       </c>
-      <c r="F6">
-        <f>ABS(D6 - B6) / B6 * 100</f>
+      <c r="G6">
+        <f>ABS(E6 - C6) / C6 * 100</f>
         <v>2.7777777777777777</v>
       </c>
-      <c r="G6">
-        <f t="shared" ref="G6:G11" si="1">AVERAGE(B6:E6)</f>
+      <c r="H6">
+        <f t="shared" ref="H6:H11" si="1">AVERAGE(C6:F6)</f>
         <v>212.53125</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
+        <v>68</v>
+      </c>
+      <c r="B7">
         <v>50</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>267</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>270</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>1.1235955056179776</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="1"/>
         <v>179.374531835206</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
+        <v>74</v>
+      </c>
+      <c r="B8">
         <v>44</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>311</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>312</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>0.32154340836012862</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>207.77384780278672</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
+        <v>84</v>
+      </c>
+      <c r="B9">
         <v>34</v>
-      </c>
-      <c r="B9">
-        <v>363</v>
       </c>
       <c r="C9">
         <v>363</v>
       </c>
-      <c r="E9">
+      <c r="D9">
+        <v>363</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
+        <v>89</v>
+      </c>
+      <c r="B10">
         <v>29</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>287</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>294</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>2.4390243902439024</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="1"/>
         <v>194.47967479674799</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
+        <v>118</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>286</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>288</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>0.69930069930069927</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="1"/>
         <v>191.56643356643357</v>
       </c>
